--- a/Code/Results/Cases/Case_5_245/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_245/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.27800728494048</v>
+        <v>14.20422986892707</v>
       </c>
       <c r="C2">
-        <v>12.53151796790698</v>
+        <v>10.21172724742363</v>
       </c>
       <c r="D2">
-        <v>4.242710525951955</v>
+        <v>4.832382509627056</v>
       </c>
       <c r="E2">
-        <v>7.26872768038879</v>
+        <v>12.21280148691861</v>
       </c>
       <c r="F2">
-        <v>19.38188519356518</v>
+        <v>24.66609776886348</v>
       </c>
       <c r="I2">
-        <v>13.6419625597347</v>
+        <v>22.11756352582332</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.283508569110974</v>
+        <v>10.02367379382308</v>
       </c>
       <c r="M2">
-        <v>11.56274902141355</v>
+        <v>14.38219852680219</v>
       </c>
       <c r="N2">
-        <v>11.99679806484655</v>
+        <v>17.83463344637399</v>
       </c>
       <c r="O2">
-        <v>15.22822020380544</v>
+        <v>22.00045793095443</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.98713252022688</v>
+        <v>13.73990935457991</v>
       </c>
       <c r="C3">
-        <v>11.96459109506395</v>
+        <v>9.980055976118416</v>
       </c>
       <c r="D3">
-        <v>4.122549728731784</v>
+        <v>4.793411487157488</v>
       </c>
       <c r="E3">
-        <v>7.358472778605488</v>
+        <v>12.24915560344527</v>
       </c>
       <c r="F3">
-        <v>18.77137754379176</v>
+        <v>24.64339444581196</v>
       </c>
       <c r="I3">
-        <v>13.72560474250113</v>
+        <v>22.20910413977141</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -486,16 +486,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.196178189187098</v>
+        <v>10.0313067501568</v>
       </c>
       <c r="M3">
-        <v>11.02279325327911</v>
+        <v>14.29024941157939</v>
       </c>
       <c r="N3">
-        <v>12.14825647045707</v>
+        <v>17.88579679501932</v>
       </c>
       <c r="O3">
-        <v>14.97806981203963</v>
+        <v>22.03916748154745</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.14710712760908</v>
+        <v>13.44848288234644</v>
       </c>
       <c r="C4">
-        <v>11.60192269225812</v>
+        <v>9.83368689417278</v>
       </c>
       <c r="D4">
-        <v>4.046565255747725</v>
+        <v>4.768982357822719</v>
       </c>
       <c r="E4">
-        <v>7.415753112677398</v>
+        <v>12.27270465952869</v>
       </c>
       <c r="F4">
-        <v>18.4053157763516</v>
+        <v>24.6367315221349</v>
       </c>
       <c r="I4">
-        <v>13.78980854384675</v>
+        <v>22.26998999818573</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -527,16 +527,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.144901212971217</v>
+        <v>10.0374033365541</v>
       </c>
       <c r="M4">
-        <v>10.68115515471939</v>
+        <v>14.23559042766703</v>
       </c>
       <c r="N4">
-        <v>12.2445462649006</v>
+        <v>17.91897478227963</v>
       </c>
       <c r="O4">
-        <v>14.83717476725988</v>
+        <v>22.06847598540782</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.7928015187638</v>
+        <v>13.32831459669349</v>
       </c>
       <c r="C5">
-        <v>11.45057916395335</v>
+        <v>9.773055325012376</v>
       </c>
       <c r="D5">
-        <v>4.01507341579265</v>
+        <v>4.75890525872834</v>
       </c>
       <c r="E5">
-        <v>7.439644081646955</v>
+        <v>12.28261052454264</v>
       </c>
       <c r="F5">
-        <v>18.25854634498759</v>
+        <v>24.63584853381371</v>
       </c>
       <c r="I5">
-        <v>13.81905544778161</v>
+        <v>22.29597624348162</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.124605941351883</v>
+        <v>10.04024278590913</v>
       </c>
       <c r="M5">
-        <v>10.53957522438754</v>
+        <v>14.21378646875386</v>
       </c>
       <c r="N5">
-        <v>12.28461199424621</v>
+        <v>17.93293948704045</v>
       </c>
       <c r="O5">
-        <v>14.78292900806563</v>
+        <v>22.08180949640498</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.73324343819577</v>
+        <v>13.30828123642048</v>
       </c>
       <c r="C6">
-        <v>11.42523772598736</v>
+        <v>9.762929575081362</v>
       </c>
       <c r="D6">
-        <v>4.009813190714336</v>
+        <v>4.757224708088927</v>
       </c>
       <c r="E6">
-        <v>7.443644349384806</v>
+        <v>12.28427409769026</v>
       </c>
       <c r="F6">
-        <v>18.2343262056723</v>
+        <v>24.63581261118858</v>
       </c>
       <c r="I6">
-        <v>13.8240938766963</v>
+        <v>22.30036213564803</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.121272493525637</v>
+        <v>10.04073573121935</v>
       </c>
       <c r="M6">
-        <v>10.51592929934047</v>
+        <v>14.21019483447679</v>
       </c>
       <c r="N6">
-        <v>12.29131479364283</v>
+        <v>17.93528518519691</v>
       </c>
       <c r="O6">
-        <v>14.77411210783862</v>
+        <v>22.08410736927178</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.14237746244709</v>
+        <v>13.44686770607912</v>
       </c>
       <c r="C7">
-        <v>11.59989584571057</v>
+        <v>9.832873113424817</v>
       </c>
       <c r="D7">
-        <v>4.046142644478413</v>
+        <v>4.76884694348175</v>
       </c>
       <c r="E7">
-        <v>7.416073090605936</v>
+        <v>12.27283699957019</v>
       </c>
       <c r="F7">
-        <v>18.40332640485462</v>
+        <v>24.63671219345723</v>
       </c>
       <c r="I7">
-        <v>13.79019068493396</v>
+        <v>22.27033570379059</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -650,16 +650,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.144625058741123</v>
+        <v>10.03744019219969</v>
       </c>
       <c r="M7">
-        <v>10.67925505298621</v>
+        <v>14.23529444567842</v>
       </c>
       <c r="N7">
-        <v>12.24508325861124</v>
+        <v>17.91916131450795</v>
       </c>
       <c r="O7">
-        <v>14.83643039318754</v>
+        <v>22.06865018209569</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.84271758403902</v>
+        <v>14.0455511585731</v>
       </c>
       <c r="C8">
-        <v>12.33912694237632</v>
+        <v>10.13273245453537</v>
       </c>
       <c r="D8">
-        <v>4.201752249072481</v>
+        <v>4.819051554051577</v>
       </c>
       <c r="E8">
-        <v>7.299220906217885</v>
+        <v>12.22508208881229</v>
       </c>
       <c r="F8">
-        <v>19.16967232718319</v>
+        <v>24.65676121854674</v>
       </c>
       <c r="I8">
-        <v>13.66804617763489</v>
+        <v>22.14815432106385</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.252917488118046</v>
+        <v>10.02601333122909</v>
       </c>
       <c r="M8">
-        <v>11.37876925302753</v>
+        <v>14.35013218531034</v>
       </c>
       <c r="N8">
-        <v>12.0483362393632</v>
+        <v>17.85190913603167</v>
       </c>
       <c r="O8">
-        <v>15.13932245707137</v>
+        <v>22.01265323368988</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.80374150467962</v>
+        <v>15.16207796500663</v>
       </c>
       <c r="C9">
-        <v>13.66920353609681</v>
+        <v>10.68594802291027</v>
       </c>
       <c r="D9">
-        <v>4.488339416924718</v>
+        <v>4.913361899823452</v>
       </c>
       <c r="E9">
-        <v>7.087283091897914</v>
+        <v>12.14113898361764</v>
       </c>
       <c r="F9">
-        <v>20.73401179693571</v>
+        <v>24.7536407858855</v>
       </c>
       <c r="I9">
-        <v>13.53723284753761</v>
+        <v>21.94577388288311</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -732,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.48334742865402</v>
+        <v>10.01476814830278</v>
       </c>
       <c r="M9">
-        <v>12.80872504961145</v>
+        <v>14.58878220473857</v>
       </c>
       <c r="N9">
-        <v>11.68875216148081</v>
+        <v>17.73397659386125</v>
       </c>
       <c r="O9">
-        <v>15.83454971117035</v>
+        <v>21.9469297556047</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.75579587531557</v>
+        <v>15.93870137602916</v>
       </c>
       <c r="C10">
-        <v>14.56947961587823</v>
+        <v>11.06859139950381</v>
       </c>
       <c r="D10">
-        <v>4.686319020090143</v>
+        <v>4.979908562591143</v>
       </c>
       <c r="E10">
-        <v>6.941992594245074</v>
+        <v>12.08533221235153</v>
       </c>
       <c r="F10">
-        <v>21.91059099906897</v>
+        <v>24.85956691224339</v>
       </c>
       <c r="I10">
-        <v>13.51690115465388</v>
+        <v>21.81989157081367</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.662909694325843</v>
+        <v>10.01327586716003</v>
       </c>
       <c r="M10">
-        <v>13.89941415403228</v>
+        <v>14.77119305268255</v>
       </c>
       <c r="N10">
-        <v>11.44077435870424</v>
+        <v>17.65577435098562</v>
       </c>
       <c r="O10">
-        <v>16.4071548842753</v>
+        <v>21.92565899360954</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.59625976689193</v>
+        <v>16.28098764165281</v>
       </c>
       <c r="C11">
-        <v>14.96177526317396</v>
+        <v>11.23701457216906</v>
       </c>
       <c r="D11">
-        <v>4.773433173464853</v>
+        <v>5.009541439059879</v>
       </c>
       <c r="E11">
-        <v>6.878150183703258</v>
+        <v>12.06120753507879</v>
       </c>
       <c r="F11">
-        <v>22.44989705379174</v>
+        <v>24.91519212377967</v>
       </c>
       <c r="I11">
-        <v>13.52619349741717</v>
+        <v>21.76760207721424</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -814,16 +814,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.746661895824705</v>
+        <v>10.01405776597997</v>
       </c>
       <c r="M11">
-        <v>14.37039582673575</v>
+        <v>14.85546346271508</v>
       </c>
       <c r="N11">
-        <v>11.33155829884301</v>
+        <v>17.62201874855022</v>
       </c>
       <c r="O11">
-        <v>16.6809560172534</v>
+        <v>21.921867684301</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.90776367373055</v>
+        <v>16.40891090955349</v>
       </c>
       <c r="C12">
-        <v>15.10781694377892</v>
+        <v>11.29994440079854</v>
       </c>
       <c r="D12">
-        <v>4.805981450061854</v>
+        <v>5.020666903480038</v>
       </c>
       <c r="E12">
-        <v>6.854298509277108</v>
+        <v>12.05225285282173</v>
       </c>
       <c r="F12">
-        <v>22.65457306388578</v>
+        <v>24.93731375038714</v>
       </c>
       <c r="I12">
-        <v>13.532551725692</v>
+        <v>21.74851896836594</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -855,16 +855,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.778660387408669</v>
+        <v>10.01456296636933</v>
       </c>
       <c r="M12">
-        <v>14.54515608158187</v>
+        <v>14.88753860184055</v>
       </c>
       <c r="N12">
-        <v>11.29072647934693</v>
+        <v>17.60949703548171</v>
       </c>
       <c r="O12">
-        <v>16.7865365643118</v>
+        <v>21.92127880817942</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.84097525062519</v>
+        <v>16.38143727616387</v>
       </c>
       <c r="C13">
-        <v>15.07647638515514</v>
+        <v>11.28642962240463</v>
       </c>
       <c r="D13">
-        <v>4.79899139841257</v>
+        <v>5.018275160398827</v>
       </c>
       <c r="E13">
-        <v>6.859420970107914</v>
+        <v>12.05417337305327</v>
       </c>
       <c r="F13">
-        <v>22.61047419006959</v>
+        <v>24.93250263758991</v>
       </c>
       <c r="I13">
-        <v>13.5310533264084</v>
+        <v>21.75259689559649</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.771756554780303</v>
+        <v>10.01444487801909</v>
       </c>
       <c r="M13">
-        <v>14.50767748586781</v>
+        <v>14.88062371322844</v>
       </c>
       <c r="N13">
-        <v>11.29949677471385</v>
+        <v>17.61218222323991</v>
       </c>
       <c r="O13">
-        <v>16.7637137764886</v>
+        <v>21.92136796829704</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.62202245954346</v>
+        <v>16.29154648791466</v>
       </c>
       <c r="C14">
-        <v>14.97384069479191</v>
+        <v>11.24220905000536</v>
       </c>
       <c r="D14">
-        <v>4.776119842212863</v>
+        <v>5.010458680992097</v>
       </c>
       <c r="E14">
-        <v>6.876181393503232</v>
+        <v>12.06046720815289</v>
       </c>
       <c r="F14">
-        <v>22.46672749030583</v>
+        <v>24.91699096351458</v>
       </c>
       <c r="I14">
-        <v>13.5266586944991</v>
+        <v>21.76601769919435</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -937,16 +937,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.749288830565099</v>
+        <v>10.0140951438999</v>
       </c>
       <c r="M14">
-        <v>14.38484522433588</v>
+        <v>14.85809914748871</v>
       </c>
       <c r="N14">
-        <v>11.32818843712996</v>
+        <v>17.62098335716274</v>
       </c>
       <c r="O14">
-        <v>16.68960425668837</v>
+        <v>21.92180226460585</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.48702923897156</v>
+        <v>16.23626222024955</v>
       </c>
       <c r="C15">
-        <v>14.9106454364108</v>
+        <v>11.21501114746606</v>
       </c>
       <c r="D15">
-        <v>4.762052614773778</v>
+        <v>5.005658263153424</v>
       </c>
       <c r="E15">
-        <v>6.886489858684413</v>
+        <v>12.06434589058189</v>
       </c>
       <c r="F15">
-        <v>22.37873382644726</v>
+        <v>24.90762695309823</v>
       </c>
       <c r="I15">
-        <v>13.52434177262072</v>
+        <v>21.77433187672968</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.73556319425425</v>
+        <v>10.01390812482154</v>
       </c>
       <c r="M15">
-        <v>14.30914032718237</v>
+        <v>14.84432287560516</v>
       </c>
       <c r="N15">
-        <v>11.34583172346541</v>
+        <v>17.62640824737828</v>
       </c>
       <c r="O15">
-        <v>16.64445667729144</v>
+        <v>21.92217857017674</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.69991932233887</v>
+        <v>15.91610097727517</v>
       </c>
       <c r="C16">
-        <v>14.54349214487551</v>
+        <v>11.0574677695656</v>
       </c>
       <c r="D16">
-        <v>4.680565168042864</v>
+        <v>4.977958780305001</v>
       </c>
       <c r="E16">
-        <v>6.94621016204624</v>
+        <v>12.08693415522646</v>
       </c>
       <c r="F16">
-        <v>21.87541617775926</v>
+        <v>24.85608036381556</v>
       </c>
       <c r="I16">
-        <v>13.51668177886873</v>
+        <v>21.82340912635992</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.657476695225968</v>
+        <v>10.01325408370963</v>
       </c>
       <c r="M16">
-        <v>13.86813023931969</v>
+        <v>14.7657098942164</v>
       </c>
       <c r="N16">
-        <v>11.44798490853663</v>
+        <v>17.65801689563104</v>
       </c>
       <c r="O16">
-        <v>16.38952791291462</v>
+        <v>21.92602524581245</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.20492984911461</v>
+        <v>15.71679118586167</v>
       </c>
       <c r="C17">
-        <v>14.31381214560388</v>
+        <v>10.95934741867641</v>
       </c>
       <c r="D17">
-        <v>4.629808179130701</v>
+        <v>4.9607994461925</v>
       </c>
       <c r="E17">
-        <v>6.983423275468203</v>
+        <v>12.1011140928528</v>
       </c>
       <c r="F17">
-        <v>21.5675890335609</v>
+        <v>24.82635537334022</v>
       </c>
       <c r="I17">
-        <v>13.51685464011286</v>
+        <v>21.85479234938812</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.610092731374132</v>
+        <v>10.0132263406912</v>
       </c>
       <c r="M17">
-        <v>13.59115631026696</v>
+        <v>14.7177985035184</v>
       </c>
       <c r="N17">
-        <v>11.51157835721821</v>
+        <v>17.67787311179012</v>
       </c>
       <c r="O17">
-        <v>16.23653709437641</v>
+        <v>21.92989290939618</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.9157461730407</v>
+        <v>15.60112352790553</v>
       </c>
       <c r="C18">
-        <v>14.1800843480839</v>
+        <v>10.90238202693039</v>
       </c>
       <c r="D18">
-        <v>4.600337473000544</v>
+        <v>4.950869883469499</v>
       </c>
       <c r="E18">
-        <v>7.00503909550221</v>
+        <v>12.10938885315845</v>
       </c>
       <c r="F18">
-        <v>21.39092518761515</v>
+        <v>24.80995936166945</v>
       </c>
       <c r="I18">
-        <v>13.5186888543793</v>
+        <v>21.87331127762756</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.583034236925394</v>
+        <v>10.01334793770691</v>
       </c>
       <c r="M18">
-        <v>13.4294762410082</v>
+        <v>14.69036395884098</v>
       </c>
       <c r="N18">
-        <v>11.54849286458813</v>
+        <v>17.68946513865094</v>
       </c>
       <c r="O18">
-        <v>16.14979579697788</v>
+        <v>21.93267140182965</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.81706208999363</v>
+        <v>15.56178714121106</v>
       </c>
       <c r="C19">
-        <v>14.1345290148723</v>
+        <v>10.88300481474309</v>
       </c>
       <c r="D19">
-        <v>4.59031221030973</v>
+        <v>4.947497724728716</v>
       </c>
       <c r="E19">
-        <v>7.0123942177181</v>
+        <v>12.11221097571167</v>
       </c>
       <c r="F19">
-        <v>21.33118127078642</v>
+        <v>24.80452869660922</v>
       </c>
       <c r="I19">
-        <v>13.51960256605199</v>
+        <v>21.87966179710945</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.573906712993762</v>
+        <v>10.0134127606522</v>
       </c>
       <c r="M19">
-        <v>13.37432590082733</v>
+        <v>14.68109685017613</v>
       </c>
       <c r="N19">
-        <v>11.56104914293032</v>
+        <v>17.69341943697648</v>
       </c>
       <c r="O19">
-        <v>16.12064273401233</v>
+        <v>21.93370725979189</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.25808533592881</v>
+        <v>15.73811549132942</v>
       </c>
       <c r="C20">
-        <v>14.33843010777187</v>
+        <v>10.96984754069166</v>
       </c>
       <c r="D20">
-        <v>4.635240100149866</v>
+        <v>4.962632321507059</v>
       </c>
       <c r="E20">
-        <v>6.979439952145178</v>
+        <v>12.09959232023515</v>
       </c>
       <c r="F20">
-        <v>21.60031840997731</v>
+        <v>24.82944717934257</v>
       </c>
       <c r="I20">
-        <v>13.51665544049908</v>
+        <v>21.85140308483655</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.615116704839574</v>
+        <v>10.01321506419422</v>
       </c>
       <c r="M20">
-        <v>13.62088594340836</v>
+        <v>14.72288619906719</v>
       </c>
       <c r="N20">
-        <v>11.50477375994762</v>
+        <v>17.67574166489586</v>
       </c>
       <c r="O20">
-        <v>16.25269346540253</v>
+        <v>21.92942385585267</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.6865171060892</v>
+        <v>16.3179963620722</v>
       </c>
       <c r="C21">
-        <v>15.00405566897905</v>
+        <v>11.25522100729369</v>
       </c>
       <c r="D21">
-        <v>4.78284983129311</v>
+        <v>5.012757202827734</v>
       </c>
       <c r="E21">
-        <v>6.871249650487389</v>
+        <v>12.05861365447852</v>
       </c>
       <c r="F21">
-        <v>22.50893805505621</v>
+        <v>24.92151852108579</v>
       </c>
       <c r="I21">
-        <v>13.52787106319681</v>
+        <v>21.76205618432766</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.755880564742638</v>
+        <v>10.01419220197534</v>
       </c>
       <c r="M21">
-        <v>14.42102121413565</v>
+        <v>14.86471088904216</v>
       </c>
       <c r="N21">
-        <v>11.31974663921846</v>
+        <v>17.61839117873711</v>
       </c>
       <c r="O21">
-        <v>16.71132065129808</v>
+        <v>21.92165171745262</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.58070456513119</v>
+        <v>16.68707065303462</v>
       </c>
       <c r="C22">
-        <v>15.4244300476899</v>
+        <v>11.43676914436546</v>
       </c>
       <c r="D22">
-        <v>4.876750826719905</v>
+        <v>5.044956198173855</v>
       </c>
       <c r="E22">
-        <v>6.802430455114042</v>
+        <v>12.03288531370434</v>
       </c>
       <c r="F22">
-        <v>23.10536487053793</v>
+        <v>24.98784998297331</v>
       </c>
       <c r="I22">
-        <v>13.55183153752046</v>
+        <v>21.70784773429583</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.84952347257695</v>
+        <v>10.01604918594008</v>
       </c>
       <c r="M22">
-        <v>14.92304588295413</v>
+        <v>14.95834581128244</v>
       </c>
       <c r="N22">
-        <v>11.20189231438523</v>
+        <v>17.58242912699108</v>
       </c>
       <c r="O22">
-        <v>17.02211480751053</v>
+        <v>21.92150787673156</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.1070376495073</v>
+        <v>16.49102901586571</v>
       </c>
       <c r="C23">
-        <v>15.20141679038939</v>
+        <v>11.34033871521429</v>
       </c>
       <c r="D23">
-        <v>4.826874094789069</v>
+        <v>5.027823542241048</v>
       </c>
       <c r="E23">
-        <v>6.838987415244357</v>
+        <v>12.0465208325961</v>
       </c>
       <c r="F23">
-        <v>22.78684193707093</v>
+        <v>24.9518886550227</v>
       </c>
       <c r="I23">
-        <v>13.53746453312454</v>
+        <v>21.73639609841329</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.799398386252886</v>
+        <v>10.01494693143521</v>
       </c>
       <c r="M23">
-        <v>14.65700805930889</v>
+        <v>14.90829195270242</v>
       </c>
       <c r="N23">
-        <v>11.26450857665864</v>
+        <v>17.60148393666336</v>
       </c>
       <c r="O23">
-        <v>16.85523248463404</v>
+        <v>21.92113299575967</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.2340680976649</v>
+        <v>15.7284781338427</v>
       </c>
       <c r="C24">
-        <v>14.32730556263405</v>
+        <v>10.96510216049133</v>
       </c>
       <c r="D24">
-        <v>4.63278523019307</v>
+        <v>4.961803878971245</v>
       </c>
       <c r="E24">
-        <v>6.981240122701421</v>
+        <v>12.10027993193433</v>
       </c>
       <c r="F24">
-        <v>21.58552048268135</v>
+        <v>24.82804721341592</v>
       </c>
       <c r="I24">
-        <v>13.51674010815069</v>
+        <v>21.85293388787295</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.61284479479987</v>
+        <v>10.0132197337858</v>
       </c>
       <c r="M24">
-        <v>13.60745279123926</v>
+        <v>14.7205857065034</v>
       </c>
       <c r="N24">
-        <v>11.50784901711013</v>
+        <v>17.67670474241859</v>
       </c>
       <c r="O24">
-        <v>16.24538538377095</v>
+        <v>21.92963418645103</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.04224839838641</v>
+        <v>14.86713266287922</v>
       </c>
       <c r="C25">
-        <v>13.32265859715707</v>
+        <v>10.54029433400176</v>
       </c>
       <c r="D25">
-        <v>4.412936094161657</v>
+        <v>4.888314543836252</v>
       </c>
       <c r="E25">
-        <v>7.142783971237006</v>
+        <v>12.16281408709203</v>
       </c>
       <c r="F25">
-        <v>20.30533589368734</v>
+        <v>24.72129841209278</v>
       </c>
       <c r="I25">
-        <v>13.56001318777461</v>
+        <v>21.99652661952814</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.419151167171091</v>
+        <v>10.01661855879601</v>
       </c>
       <c r="M25">
-        <v>12.38456541038298</v>
+        <v>14.5228951358727</v>
       </c>
       <c r="N25">
-        <v>11.78320329599098</v>
+        <v>17.76439351595178</v>
       </c>
       <c r="O25">
-        <v>15.63559170474209</v>
+        <v>21.95997336861909</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_245/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_245/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.20422986892707</v>
+        <v>19.27800728494042</v>
       </c>
       <c r="C2">
-        <v>10.21172724742363</v>
+        <v>12.53151796790705</v>
       </c>
       <c r="D2">
-        <v>4.832382509627056</v>
+        <v>4.242710525951886</v>
       </c>
       <c r="E2">
-        <v>12.21280148691861</v>
+        <v>7.268727680388793</v>
       </c>
       <c r="F2">
-        <v>24.66609776886348</v>
+        <v>19.38188519356525</v>
       </c>
       <c r="I2">
-        <v>22.11756352582332</v>
+        <v>13.64196255973483</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.02367379382308</v>
+        <v>6.283508569110928</v>
       </c>
       <c r="M2">
-        <v>14.38219852680219</v>
+        <v>11.56274902141358</v>
       </c>
       <c r="N2">
-        <v>17.83463344637399</v>
+        <v>11.99679806484658</v>
       </c>
       <c r="O2">
-        <v>22.00045793095443</v>
+        <v>15.22822020380553</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.73990935457991</v>
+        <v>17.98713252022693</v>
       </c>
       <c r="C3">
-        <v>9.980055976118416</v>
+        <v>11.96459109506394</v>
       </c>
       <c r="D3">
-        <v>4.793411487157488</v>
+        <v>4.122549728731832</v>
       </c>
       <c r="E3">
-        <v>12.24915560344527</v>
+        <v>7.358472778605357</v>
       </c>
       <c r="F3">
-        <v>24.64339444581196</v>
+        <v>18.77137754379168</v>
       </c>
       <c r="I3">
-        <v>22.20910413977141</v>
+        <v>13.72560474250096</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -486,16 +486,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.0313067501568</v>
+        <v>6.196178189187044</v>
       </c>
       <c r="M3">
-        <v>14.29024941157939</v>
+        <v>11.02279325327909</v>
       </c>
       <c r="N3">
-        <v>17.88579679501932</v>
+        <v>12.14825647045701</v>
       </c>
       <c r="O3">
-        <v>22.03916748154745</v>
+        <v>14.97806981203956</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.44848288234644</v>
+        <v>17.14710712760911</v>
       </c>
       <c r="C4">
-        <v>9.83368689417278</v>
+        <v>11.60192269225771</v>
       </c>
       <c r="D4">
-        <v>4.768982357822719</v>
+        <v>4.04656525574784</v>
       </c>
       <c r="E4">
-        <v>12.27270465952869</v>
+        <v>7.415753112677267</v>
       </c>
       <c r="F4">
-        <v>24.6367315221349</v>
+        <v>18.40531577635162</v>
       </c>
       <c r="I4">
-        <v>22.26998999818573</v>
+        <v>13.78980854384671</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -527,16 +527,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.0374033365541</v>
+        <v>6.144901212971222</v>
       </c>
       <c r="M4">
-        <v>14.23559042766703</v>
+        <v>10.68115515471938</v>
       </c>
       <c r="N4">
-        <v>17.91897478227963</v>
+        <v>12.2445462649006</v>
       </c>
       <c r="O4">
-        <v>22.06847598540782</v>
+        <v>14.83717476725992</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.32831459669349</v>
+        <v>16.79280151876381</v>
       </c>
       <c r="C5">
-        <v>9.773055325012376</v>
+        <v>11.45057916395353</v>
       </c>
       <c r="D5">
-        <v>4.75890525872834</v>
+        <v>4.015073415792761</v>
       </c>
       <c r="E5">
-        <v>12.28261052454264</v>
+        <v>7.439644081646887</v>
       </c>
       <c r="F5">
-        <v>24.63584853381371</v>
+        <v>18.25854634498751</v>
       </c>
       <c r="I5">
-        <v>22.29597624348162</v>
+        <v>13.81905544778169</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.04024278590913</v>
+        <v>6.124605941351778</v>
       </c>
       <c r="M5">
-        <v>14.21378646875386</v>
+        <v>10.53957522438751</v>
       </c>
       <c r="N5">
-        <v>17.93293948704045</v>
+        <v>12.2846119942462</v>
       </c>
       <c r="O5">
-        <v>22.08180949640498</v>
+        <v>14.78292900806563</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.30828123642048</v>
+        <v>16.73324343819582</v>
       </c>
       <c r="C6">
-        <v>9.762929575081362</v>
+        <v>11.42523772598723</v>
       </c>
       <c r="D6">
-        <v>4.757224708088927</v>
+        <v>4.009813190714507</v>
       </c>
       <c r="E6">
-        <v>12.28427409769026</v>
+        <v>7.443644349384742</v>
       </c>
       <c r="F6">
-        <v>24.63581261118858</v>
+        <v>18.23432620567223</v>
       </c>
       <c r="I6">
-        <v>22.30036213564803</v>
+        <v>13.82409387669625</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.04073573121935</v>
+        <v>6.121272493525592</v>
       </c>
       <c r="M6">
-        <v>14.21019483447679</v>
+        <v>10.51592929934046</v>
       </c>
       <c r="N6">
-        <v>17.93528518519691</v>
+        <v>12.29131479364278</v>
       </c>
       <c r="O6">
-        <v>22.08410736927178</v>
+        <v>14.77411210783857</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.44686770607912</v>
+        <v>17.14237746244709</v>
       </c>
       <c r="C7">
-        <v>9.832873113424817</v>
+        <v>11.59989584571057</v>
       </c>
       <c r="D7">
-        <v>4.76884694348175</v>
+        <v>4.046142644478519</v>
       </c>
       <c r="E7">
-        <v>12.27283699957019</v>
+        <v>7.416073090605936</v>
       </c>
       <c r="F7">
-        <v>24.63671219345723</v>
+        <v>18.4033264048546</v>
       </c>
       <c r="I7">
-        <v>22.27033570379059</v>
+        <v>13.79019068493397</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -650,16 +650,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.03744019219969</v>
+        <v>6.144625058741127</v>
       </c>
       <c r="M7">
-        <v>14.23529444567842</v>
+        <v>10.67925505298622</v>
       </c>
       <c r="N7">
-        <v>17.91916131450795</v>
+        <v>12.24508325861124</v>
       </c>
       <c r="O7">
-        <v>22.06865018209569</v>
+        <v>14.83643039318756</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.0455511585731</v>
+        <v>18.84271758403898</v>
       </c>
       <c r="C8">
-        <v>10.13273245453537</v>
+        <v>12.33912694237637</v>
       </c>
       <c r="D8">
-        <v>4.819051554051577</v>
+        <v>4.201752249072423</v>
       </c>
       <c r="E8">
-        <v>12.22508208881229</v>
+        <v>7.299220906217885</v>
       </c>
       <c r="F8">
-        <v>24.65676121854674</v>
+        <v>19.16967232718326</v>
       </c>
       <c r="I8">
-        <v>22.14815432106385</v>
+        <v>13.66804617763502</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.02601333122909</v>
+        <v>6.252917488118038</v>
       </c>
       <c r="M8">
-        <v>14.35013218531034</v>
+        <v>11.37876925302756</v>
       </c>
       <c r="N8">
-        <v>17.85190913603167</v>
+        <v>12.04833623936322</v>
       </c>
       <c r="O8">
-        <v>22.01265323368988</v>
+        <v>15.13932245707148</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.16207796500663</v>
+        <v>21.80374150467966</v>
       </c>
       <c r="C9">
-        <v>10.68594802291027</v>
+        <v>13.66920353609668</v>
       </c>
       <c r="D9">
-        <v>4.913361899823452</v>
+        <v>4.488339416924712</v>
       </c>
       <c r="E9">
-        <v>12.14113898361764</v>
+        <v>7.087283091897915</v>
       </c>
       <c r="F9">
-        <v>24.7536407858855</v>
+        <v>20.73401179693563</v>
       </c>
       <c r="I9">
-        <v>21.94577388288311</v>
+        <v>13.5372328475375</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -732,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.01476814830278</v>
+        <v>6.483347428654057</v>
       </c>
       <c r="M9">
-        <v>14.58878220473857</v>
+        <v>12.80872504961146</v>
       </c>
       <c r="N9">
-        <v>17.73397659386125</v>
+        <v>11.68875216148075</v>
       </c>
       <c r="O9">
-        <v>21.9469297556047</v>
+        <v>15.83454971117027</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.93870137602916</v>
+        <v>23.75579587531553</v>
       </c>
       <c r="C10">
-        <v>11.06859139950381</v>
+        <v>14.56947961587846</v>
       </c>
       <c r="D10">
-        <v>4.979908562591143</v>
+        <v>4.686319020090137</v>
       </c>
       <c r="E10">
-        <v>12.08533221235153</v>
+        <v>6.941992594245143</v>
       </c>
       <c r="F10">
-        <v>24.85956691224339</v>
+        <v>21.91059099906897</v>
       </c>
       <c r="I10">
-        <v>21.81989157081367</v>
+        <v>13.51690115465396</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.01327586716003</v>
+        <v>6.662909694325824</v>
       </c>
       <c r="M10">
-        <v>14.77119305268255</v>
+        <v>13.89941415403228</v>
       </c>
       <c r="N10">
-        <v>17.65577435098562</v>
+        <v>11.44077435870427</v>
       </c>
       <c r="O10">
-        <v>21.92565899360954</v>
+        <v>16.40715488427531</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.28098764165281</v>
+        <v>24.59625976689187</v>
       </c>
       <c r="C11">
-        <v>11.23701457216906</v>
+        <v>14.96177526317404</v>
       </c>
       <c r="D11">
-        <v>5.009541439059879</v>
+        <v>4.773433173464799</v>
       </c>
       <c r="E11">
-        <v>12.06120753507879</v>
+        <v>6.878150183703191</v>
       </c>
       <c r="F11">
-        <v>24.91519212377967</v>
+        <v>22.44989705379182</v>
       </c>
       <c r="I11">
-        <v>21.76760207721424</v>
+        <v>13.52619349741735</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -814,16 +814,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.01405776597997</v>
+        <v>6.746661895824617</v>
       </c>
       <c r="M11">
-        <v>14.85546346271508</v>
+        <v>14.37039582673574</v>
       </c>
       <c r="N11">
-        <v>17.62201874855022</v>
+        <v>11.33155829884311</v>
       </c>
       <c r="O11">
-        <v>21.921867684301</v>
+        <v>16.68095601725352</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.40891090955349</v>
+        <v>24.90776367373058</v>
       </c>
       <c r="C12">
-        <v>11.29994440079854</v>
+        <v>15.10781694377906</v>
       </c>
       <c r="D12">
-        <v>5.020666903480038</v>
+        <v>4.805981450061783</v>
       </c>
       <c r="E12">
-        <v>12.05225285282173</v>
+        <v>6.854298509277179</v>
       </c>
       <c r="F12">
-        <v>24.93731375038714</v>
+        <v>22.65457306388578</v>
       </c>
       <c r="I12">
-        <v>21.74851896836594</v>
+        <v>13.532551725692</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -855,16 +855,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.01456296636933</v>
+        <v>6.778660387408647</v>
       </c>
       <c r="M12">
-        <v>14.88753860184055</v>
+        <v>14.54515608158189</v>
       </c>
       <c r="N12">
-        <v>17.60949703548171</v>
+        <v>11.29072647934689</v>
       </c>
       <c r="O12">
-        <v>21.92127880817942</v>
+        <v>16.78653656431178</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.38143727616387</v>
+        <v>24.8409752506252</v>
       </c>
       <c r="C13">
-        <v>11.28642962240463</v>
+        <v>15.07647638515521</v>
       </c>
       <c r="D13">
-        <v>5.018275160398827</v>
+        <v>4.798991398412665</v>
       </c>
       <c r="E13">
-        <v>12.05417337305327</v>
+        <v>6.859420970107849</v>
       </c>
       <c r="F13">
-        <v>24.93250263758991</v>
+        <v>22.61047419006953</v>
       </c>
       <c r="I13">
-        <v>21.75259689559649</v>
+        <v>13.53105332640833</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.01444487801909</v>
+        <v>6.771756554780259</v>
       </c>
       <c r="M13">
-        <v>14.88062371322844</v>
+        <v>14.50767748586784</v>
       </c>
       <c r="N13">
-        <v>17.61218222323991</v>
+        <v>11.29949677471382</v>
       </c>
       <c r="O13">
-        <v>21.92136796829704</v>
+        <v>16.76371377648854</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.29154648791466</v>
+        <v>24.6220224595435</v>
       </c>
       <c r="C14">
-        <v>11.24220905000536</v>
+        <v>14.97384069479215</v>
       </c>
       <c r="D14">
-        <v>5.010458680992097</v>
+        <v>4.776119842212761</v>
       </c>
       <c r="E14">
-        <v>12.06046720815289</v>
+        <v>6.876181393503361</v>
       </c>
       <c r="F14">
-        <v>24.91699096351458</v>
+        <v>22.46672749030584</v>
       </c>
       <c r="I14">
-        <v>21.76601769919435</v>
+        <v>13.52665869449909</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -937,16 +937,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.0140951438999</v>
+        <v>6.74928883056507</v>
       </c>
       <c r="M14">
-        <v>14.85809914748871</v>
+        <v>14.38484522433589</v>
       </c>
       <c r="N14">
-        <v>17.62098335716274</v>
+        <v>11.32818843712992</v>
       </c>
       <c r="O14">
-        <v>21.92180226460585</v>
+        <v>16.68960425668836</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.23626222024955</v>
+        <v>24.48702923897153</v>
       </c>
       <c r="C15">
-        <v>11.21501114746606</v>
+        <v>14.91064543641079</v>
       </c>
       <c r="D15">
-        <v>5.005658263153424</v>
+        <v>4.762052614773838</v>
       </c>
       <c r="E15">
-        <v>12.06434589058189</v>
+        <v>6.886489858684283</v>
       </c>
       <c r="F15">
-        <v>24.90762695309823</v>
+        <v>22.37873382644729</v>
       </c>
       <c r="I15">
-        <v>21.77433187672968</v>
+        <v>13.52434177262073</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.01390812482154</v>
+        <v>6.735563194254217</v>
       </c>
       <c r="M15">
-        <v>14.84432287560516</v>
+        <v>14.30914032718238</v>
       </c>
       <c r="N15">
-        <v>17.62640824737828</v>
+        <v>11.34583172346537</v>
       </c>
       <c r="O15">
-        <v>21.92217857017674</v>
+        <v>16.64445667729148</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.91610097727517</v>
+        <v>23.69991932233891</v>
       </c>
       <c r="C16">
-        <v>11.0574677695656</v>
+        <v>14.54349214487557</v>
       </c>
       <c r="D16">
-        <v>4.977958780305001</v>
+        <v>4.680565168042896</v>
       </c>
       <c r="E16">
-        <v>12.08693415522646</v>
+        <v>6.946210162046245</v>
       </c>
       <c r="F16">
-        <v>24.85608036381556</v>
+        <v>21.87541617775929</v>
       </c>
       <c r="I16">
-        <v>21.82340912635992</v>
+        <v>13.51668177886875</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.01325408370963</v>
+        <v>6.657476695225927</v>
       </c>
       <c r="M16">
-        <v>14.7657098942164</v>
+        <v>13.86813023931971</v>
       </c>
       <c r="N16">
-        <v>17.65801689563104</v>
+        <v>11.44798490853661</v>
       </c>
       <c r="O16">
-        <v>21.92602524581245</v>
+        <v>16.38952791291466</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.71679118586167</v>
+        <v>23.20492984911465</v>
       </c>
       <c r="C17">
-        <v>10.95934741867641</v>
+        <v>14.3138121456042</v>
       </c>
       <c r="D17">
-        <v>4.9607994461925</v>
+        <v>4.629808179130897</v>
       </c>
       <c r="E17">
-        <v>12.1011140928528</v>
+        <v>6.983423275468398</v>
       </c>
       <c r="F17">
-        <v>24.82635537334022</v>
+        <v>21.5675890335608</v>
       </c>
       <c r="I17">
-        <v>21.85479234938812</v>
+        <v>13.51685464011282</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.0132263406912</v>
+        <v>6.610092731374129</v>
       </c>
       <c r="M17">
-        <v>14.7177985035184</v>
+        <v>13.59115631026697</v>
       </c>
       <c r="N17">
-        <v>17.67787311179012</v>
+        <v>11.5115783572182</v>
       </c>
       <c r="O17">
-        <v>21.92989290939618</v>
+        <v>16.23653709437633</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.60112352790553</v>
+        <v>22.9157461730407</v>
       </c>
       <c r="C18">
-        <v>10.90238202693039</v>
+        <v>14.18008434808399</v>
       </c>
       <c r="D18">
-        <v>4.950869883469499</v>
+        <v>4.600337473000544</v>
       </c>
       <c r="E18">
-        <v>12.10938885315845</v>
+        <v>7.005039095502211</v>
       </c>
       <c r="F18">
-        <v>24.80995936166945</v>
+        <v>21.39092518761515</v>
       </c>
       <c r="I18">
-        <v>21.87331127762756</v>
+        <v>13.51868885437935</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.01334793770691</v>
+        <v>6.583034236925359</v>
       </c>
       <c r="M18">
-        <v>14.69036395884098</v>
+        <v>13.42947624100821</v>
       </c>
       <c r="N18">
-        <v>17.68946513865094</v>
+        <v>11.54849286458813</v>
       </c>
       <c r="O18">
-        <v>21.93267140182965</v>
+        <v>16.14979579697788</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.56178714121106</v>
+        <v>22.81706208999368</v>
       </c>
       <c r="C19">
-        <v>10.88300481474309</v>
+        <v>14.13452901487238</v>
       </c>
       <c r="D19">
-        <v>4.947497724728716</v>
+        <v>4.590312210309746</v>
       </c>
       <c r="E19">
-        <v>12.11221097571167</v>
+        <v>7.0123942177181</v>
       </c>
       <c r="F19">
-        <v>24.80452869660922</v>
+        <v>21.33118127078638</v>
       </c>
       <c r="I19">
-        <v>21.87966179710945</v>
+        <v>13.51960256605191</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.0134127606522</v>
+        <v>6.573906712993753</v>
       </c>
       <c r="M19">
-        <v>14.68109685017613</v>
+        <v>13.37432590082737</v>
       </c>
       <c r="N19">
-        <v>17.69341943697648</v>
+        <v>11.56104914293025</v>
       </c>
       <c r="O19">
-        <v>21.93370725979189</v>
+        <v>16.12064273401224</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.73811549132942</v>
+        <v>23.25808533592879</v>
       </c>
       <c r="C20">
-        <v>10.96984754069166</v>
+        <v>14.33843010777185</v>
       </c>
       <c r="D20">
-        <v>4.962632321507059</v>
+        <v>4.635240100149804</v>
       </c>
       <c r="E20">
-        <v>12.09959232023515</v>
+        <v>6.979439952145179</v>
       </c>
       <c r="F20">
-        <v>24.82944717934257</v>
+        <v>21.60031840997733</v>
       </c>
       <c r="I20">
-        <v>21.85140308483655</v>
+        <v>13.5166554404991</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.01321506419422</v>
+        <v>6.615116704839574</v>
       </c>
       <c r="M20">
-        <v>14.72288619906719</v>
+        <v>13.62088594340833</v>
       </c>
       <c r="N20">
-        <v>17.67574166489586</v>
+        <v>11.50477375994762</v>
       </c>
       <c r="O20">
-        <v>21.92942385585267</v>
+        <v>16.25269346540257</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.3179963620722</v>
+        <v>24.68651710608921</v>
       </c>
       <c r="C21">
-        <v>11.25522100729369</v>
+        <v>15.00405566897882</v>
       </c>
       <c r="D21">
-        <v>5.012757202827734</v>
+        <v>4.78284983129307</v>
       </c>
       <c r="E21">
-        <v>12.05861365447852</v>
+        <v>6.87124965048732</v>
       </c>
       <c r="F21">
-        <v>24.92151852108579</v>
+        <v>22.50893805505628</v>
       </c>
       <c r="I21">
-        <v>21.76205618432766</v>
+        <v>13.52787106319682</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.01419220197534</v>
+        <v>6.755880564742654</v>
       </c>
       <c r="M21">
-        <v>14.86471088904216</v>
+        <v>14.42102121413565</v>
       </c>
       <c r="N21">
-        <v>17.61839117873711</v>
+        <v>11.31974663921846</v>
       </c>
       <c r="O21">
-        <v>21.92165171745262</v>
+        <v>16.71132065129816</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.68707065303462</v>
+        <v>25.58070456513112</v>
       </c>
       <c r="C22">
-        <v>11.43676914436546</v>
+        <v>15.42443004768997</v>
       </c>
       <c r="D22">
-        <v>5.044956198173855</v>
+        <v>4.876750826719812</v>
       </c>
       <c r="E22">
-        <v>12.03288531370434</v>
+        <v>6.80243045511411</v>
       </c>
       <c r="F22">
-        <v>24.98784998297331</v>
+        <v>23.10536487053793</v>
       </c>
       <c r="I22">
-        <v>21.70784773429583</v>
+        <v>13.55183153752052</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.01604918594008</v>
+        <v>6.849523472576943</v>
       </c>
       <c r="M22">
-        <v>14.95834581128244</v>
+        <v>14.92304588295411</v>
       </c>
       <c r="N22">
-        <v>17.58242912699108</v>
+        <v>11.20189231438523</v>
       </c>
       <c r="O22">
-        <v>21.92150787673156</v>
+        <v>17.02211480751055</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.49102901586571</v>
+        <v>25.10703764950731</v>
       </c>
       <c r="C23">
-        <v>11.34033871521429</v>
+        <v>15.20141679038947</v>
       </c>
       <c r="D23">
-        <v>5.027823542241048</v>
+        <v>4.826874094788963</v>
       </c>
       <c r="E23">
-        <v>12.0465208325961</v>
+        <v>6.838987415244422</v>
       </c>
       <c r="F23">
-        <v>24.9518886550227</v>
+        <v>22.78684193707096</v>
       </c>
       <c r="I23">
-        <v>21.73639609841329</v>
+        <v>13.53746453312457</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.01494693143521</v>
+        <v>6.799398386252886</v>
       </c>
       <c r="M23">
-        <v>14.90829195270242</v>
+        <v>14.65700805930889</v>
       </c>
       <c r="N23">
-        <v>17.60148393666336</v>
+        <v>11.26450857665866</v>
       </c>
       <c r="O23">
-        <v>21.92113299575967</v>
+        <v>16.85523248463407</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.7284781338427</v>
+        <v>23.23406809766492</v>
       </c>
       <c r="C24">
-        <v>10.96510216049133</v>
+        <v>14.32730556263403</v>
       </c>
       <c r="D24">
-        <v>4.961803878971245</v>
+        <v>4.632785230193015</v>
       </c>
       <c r="E24">
-        <v>12.10027993193433</v>
+        <v>6.981240122701293</v>
       </c>
       <c r="F24">
-        <v>24.82804721341592</v>
+        <v>21.58552048268134</v>
       </c>
       <c r="I24">
-        <v>21.85293388787295</v>
+        <v>13.51674010815065</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.0132197337858</v>
+        <v>6.612844794799788</v>
       </c>
       <c r="M24">
-        <v>14.7205857065034</v>
+        <v>13.6074527912393</v>
       </c>
       <c r="N24">
-        <v>17.67670474241859</v>
+        <v>11.50784901711006</v>
       </c>
       <c r="O24">
-        <v>21.92963418645103</v>
+        <v>16.24538538377092</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.86713266287922</v>
+        <v>21.04224839838646</v>
       </c>
       <c r="C25">
-        <v>10.54029433400176</v>
+        <v>13.32265859715695</v>
       </c>
       <c r="D25">
-        <v>4.888314543836252</v>
+        <v>4.412936094161704</v>
       </c>
       <c r="E25">
-        <v>12.16281408709203</v>
+        <v>7.142783971236877</v>
       </c>
       <c r="F25">
-        <v>24.72129841209278</v>
+        <v>20.30533589368736</v>
       </c>
       <c r="I25">
-        <v>21.99652661952814</v>
+        <v>13.56001318777458</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.01661855879601</v>
+        <v>6.419151167171091</v>
       </c>
       <c r="M25">
-        <v>14.5228951358727</v>
+        <v>12.38456541038301</v>
       </c>
       <c r="N25">
-        <v>17.76439351595178</v>
+        <v>11.78320329599094</v>
       </c>
       <c r="O25">
-        <v>21.95997336861909</v>
+        <v>15.6355917047421</v>
       </c>
     </row>
   </sheetData>
